--- a/calc/files/sml.xlsx
+++ b/calc/files/sml.xlsx
@@ -49,15 +49,10 @@
         <color rgb="333333" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>от 23.08.2024 №799</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+      <t>от 19</t>
+    </r>
+    <r>
+      <t>.12.2025 № 1162</t>
     </r>
   </si>
   <si>
@@ -83,7 +78,7 @@
         <color rgb="31353B" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>Вводиться в  действие с 27.08.2024</t>
+      <t>Вводится в  действие с 01.01.2025</t>
     </r>
   </si>
   <si>
@@ -422,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
@@ -451,6 +446,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
@@ -756,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -775,11 +773,11 @@
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>4.5</v>
+      <c r="E6" s="12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
@@ -796,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
@@ -809,12 +807,12 @@
       <c r="B8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s"/>
-      <c r="E8" s="13" t="s"/>
-      <c r="F8" s="14" t="s"/>
+      <c r="D8" s="14" t="s"/>
+      <c r="E8" s="14" t="s"/>
+      <c r="F8" s="15" t="s"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="6" t="n">
@@ -829,13 +827,13 @@
       <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <v>4.5</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="12" t="n">
         <v>6.7</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9/120*20</f>
         <v>1.1166666666666667</v>
       </c>
@@ -853,13 +851,13 @@
       <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>5.65</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <v>9.5</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10/120*20</f>
         <v>1.5833333333333333</v>
       </c>
@@ -877,25 +875,22 @@
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>8.1</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12" t="n">
         <v>14.5</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11/120*20</f>
         <v>2.4166666666666665</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="G12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="D18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">2.35*1.2</f>
-        <v>2.82</v>
-      </c>
+      <c r="D18" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/calc/files/sml.xlsx
+++ b/calc/files/sml.xlsx
@@ -52,7 +52,27 @@
       <t>от 19</t>
     </r>
     <r>
-      <t>.12.2025 № 1162</t>
+      <t xml:space="preserve">.12.2025 № 1162 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="arial"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="333333" tint="0"/>
+        <sz val="14"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="arial"/>
+        <b val="false"/>
+        <i val="true"/>
+        <color rgb="333333" tint="0"/>
+        <sz val="14"/>
+      </rPr>
+      <t>(с изменениями приказ от 05.06.2025 №526)</t>
     </r>
   </si>
   <si>
@@ -78,7 +98,7 @@
         <color rgb="31353B" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>Вводится в  действие с 01.01.2025</t>
+      <t>В действии с 10.06.2025</t>
     </r>
   </si>
   <si>
@@ -372,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -403,6 +423,41 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
@@ -415,54 +470,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
+  <cellXfs count="18">
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="left" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
       <alignment horizontal="left" indent="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="1" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="4" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="1" fillId="0" fontId="4" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="4" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="2" fillId="0" fontId="4" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="4" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="3" fillId="0" fontId="4" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="4" fillId="0" fontId="4" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -737,8 +795,8 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s"/>
-      <c r="E4" s="8" t="s"/>
-      <c r="F4" s="9" t="s"/>
+      <c r="E4" s="9" t="s"/>
+      <c r="F4" s="10" t="s"/>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="6" t="n">
@@ -747,17 +805,21 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <v>2.5</v>
       </c>
       <c r="F5" s="12" t="n">
         <v>3.5</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5/120*20</f>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -767,17 +829,21 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>3.3</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6/120*20</f>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
@@ -787,17 +853,21 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <v>4.1</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>5.8</v>
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7/120*20</f>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
@@ -807,12 +877,13 @@
       <c r="B8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="s"/>
-      <c r="E8" s="14" t="s"/>
-      <c r="F8" s="15" t="s"/>
+      <c r="D8" s="15" t="s"/>
+      <c r="E8" s="16" t="s"/>
+      <c r="F8" s="17" t="s"/>
+      <c r="G8" s="13" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="6" t="n">
@@ -821,10 +892,10 @@
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="12" t="n">
@@ -833,7 +904,7 @@
       <c r="F9" s="12" t="n">
         <v>6.7</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9/120*20</f>
         <v>1.1166666666666667</v>
       </c>
@@ -845,10 +916,10 @@
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="12" t="n">
@@ -857,7 +928,7 @@
       <c r="F10" s="12" t="n">
         <v>9.5</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10/120*20</f>
         <v>1.5833333333333333</v>
       </c>
@@ -869,10 +940,10 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="12" t="n">
@@ -881,13 +952,13 @@
       <c r="F11" s="12" t="n">
         <v>14.5</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11/120*20</f>
         <v>2.4166666666666665</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="G12" s="16" t="n"/>
+      <c r="G12" s="13" t="n"/>
     </row>
     <row outlineLevel="0" r="18">
       <c r="D18" s="1" t="n"/>

--- a/calc/files/sml.xlsx
+++ b/calc/files/sml.xlsx
@@ -38,21 +38,7 @@
       <t>Приказ РУП "Белпочта"</t>
     </r>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="333333" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>от 19</t>
-    </r>
-    <r>
-      <t xml:space="preserve">.12.2025 № 1162 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -62,17 +48,7 @@
         <color rgb="333333" tint="0"/>
         <sz val="14"/>
       </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="arial"/>
-        <b val="false"/>
-        <i val="true"/>
-        <color rgb="333333" tint="0"/>
-        <sz val="14"/>
-      </rPr>
-      <t>(с изменениями приказ от 05.06.2025 №526)</t>
+      <t>от 15.12.2025 №1143</t>
     </r>
   </si>
   <si>
@@ -98,7 +74,7 @@
         <color rgb="31353B" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>В действии с 10.06.2025</t>
+      <t>В действии с 01.01.2026</t>
     </r>
   </si>
   <si>
@@ -812,14 +788,14 @@
         <v>11</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G5" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5/120*20</f>
-        <v>0.5833333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -836,14 +812,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6/120*20</f>
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
@@ -860,14 +836,14 @@
         <v>15</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="G7" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7/120*20</f>
-        <v>1.1666666666666667</v>
+        <v>1.2833333333333332</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
@@ -899,14 +875,14 @@
         <v>17</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="G9" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9/120*20</f>
-        <v>1.1166666666666667</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
@@ -923,14 +899,14 @@
         <v>18</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>5.65</v>
+        <v>6.2</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G10" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10/120*20</f>
-        <v>1.5833333333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
@@ -947,14 +923,14 @@
         <v>19</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="G11" s="13" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11/120*20</f>
-        <v>2.4166666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
